--- a/time_series_forecasting/notebooks/dataset_1/data/holidays-lisbon-2022.xlsx
+++ b/time_series_forecasting/notebooks/dataset_1/data/holidays-lisbon-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/time_series_forecasting/dataset_1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/time_series_forecasting/notebooks/dataset_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D1B13-D56F-1140-B10F-2284FA2B97D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CA288-E2ED-D24F-B5C6-643E039D7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{52179629-CDB9-7F4E-9946-2849653CBC2D}"/>
   </bookViews>
@@ -425,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C321B5-A8DF-8744-B4EB-73C0C56D7799}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44621</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44666</v>
       </c>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44668</v>
       </c>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44676</v>
       </c>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44682</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44722</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44725</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44788</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44839</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44903</v>
       </c>
@@ -549,13 +549,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44920</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45087</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
